--- a/Report of Foresty_20241017/2024鳥類調查資料概況-1.xlsx
+++ b/Report of Foresty_20241017/2024鳥類調查資料概況-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20241017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321AD66A-4128-4564-9B5F-93629459D9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F82264-CEA7-45A9-B3A9-20938526A087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -2563,7 +2563,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
@@ -2593,6 +2592,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2632,9 +2632,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14739891975308642"/>
+          <c:x val="5.9204513888888886E-2"/>
           <c:y val="5.6091666666666665E-2"/>
-          <c:w val="0.79184354025061465"/>
+          <c:w val="0.88131879120483292"/>
           <c:h val="0.60469290123456787"/>
         </c:manualLayout>
       </c:layout>
@@ -2655,6 +2655,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖1!$B$4:$B$13</c:f>
@@ -2797,7 +2818,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2858,23 +2879,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2937,9 +2941,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12282170138888888"/>
+          <c:x val="5.6185956790123455E-2"/>
           <c:y val="6.6250000000000003E-2"/>
-          <c:w val="0.82539131944444444"/>
+          <c:w val="0.89202716049382713"/>
           <c:h val="0.61472109501670658"/>
         </c:manualLayout>
       </c:layout>
@@ -2960,6 +2964,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖2!$C$83:$C$91</c:f>
@@ -3096,7 +3121,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3153,23 +3178,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3235,9 +3243,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12282170138888888"/>
+          <c:x val="5.8145833333333334E-2"/>
           <c:y val="6.6250000000000003E-2"/>
-          <c:w val="0.82539131944444444"/>
+          <c:w val="0.89006728395061729"/>
           <c:h val="0.61472109501670658"/>
         </c:manualLayout>
       </c:layout>
@@ -3258,6 +3266,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖2!$C$96:$C$104</c:f>
@@ -3394,7 +3423,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3451,23 +3480,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3532,9 +3544,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11697325152954872"/>
+          <c:x val="5.8696441269538872E-2"/>
           <c:y val="6.8067644239080891E-2"/>
-          <c:w val="0.78704976298443097"/>
+          <c:w val="0.84532657324444072"/>
           <c:h val="0.60469290123456787"/>
         </c:manualLayout>
       </c:layout>
@@ -3555,6 +3567,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>占比圖!$D$3:$D$20</c:f>
@@ -3745,7 +3778,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3799,23 +3832,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -3878,10 +3894,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14739891975308642"/>
-          <c:y val="5.6091666666666665E-2"/>
-          <c:w val="0.79184354025061465"/>
-          <c:h val="0.60469290123456787"/>
+          <c:x val="8.9459499321983785E-2"/>
+          <c:y val="0.10019019135961123"/>
+          <c:w val="0.8388845379583022"/>
+          <c:h val="0.56059440641136471"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3901,6 +3917,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>占比圖!$D$28:$D$44</c:f>
@@ -4086,7 +4123,7 @@
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4140,23 +4177,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -4219,9 +4239,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12042934027777778"/>
+          <c:x val="7.7186021164704063E-2"/>
           <c:y val="5.6091666666666665E-2"/>
-          <c:w val="0.78980590277777774"/>
+          <c:w val="0.8330491526627426"/>
           <c:h val="0.60469290123456787"/>
         </c:manualLayout>
       </c:layout>
@@ -4242,6 +4262,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>占比圖!$D$50:$D$59</c:f>
@@ -4384,7 +4425,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4438,23 +4479,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -4517,9 +4541,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14584965277777778"/>
-          <c:y val="6.7065226750592441E-2"/>
-          <c:w val="0.73251462977176562"/>
+          <c:x val="6.2041655895545854E-2"/>
+          <c:y val="6.7065185486238119E-2"/>
+          <c:w val="0.81852746206120452"/>
           <c:h val="0.59324315555261609"/>
         </c:manualLayout>
       </c:layout>
@@ -4540,6 +4564,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖1!$B$19:$B$28</c:f>
@@ -4682,7 +4727,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4743,23 +4788,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -4822,9 +4850,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19072083333333334"/>
+          <c:x val="6.3951041666666666E-2"/>
           <c:y val="6.3103124999999996E-2"/>
-          <c:w val="0.74789665762094748"/>
+          <c:w val="0.84900329861111112"/>
           <c:h val="0.61701562499999996"/>
         </c:manualLayout>
       </c:layout>
@@ -4845,6 +4873,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖1!$B$33:$B$42</c:f>
@@ -4987,7 +5036,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5048,23 +5097,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -5127,9 +5159,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12282170138888888"/>
+          <c:x val="6.9905092592592588E-2"/>
           <c:y val="6.6250000000000003E-2"/>
-          <c:w val="0.82539131944444444"/>
+          <c:w val="0.87830802469135816"/>
           <c:h val="0.61472109501670658"/>
         </c:manualLayout>
       </c:layout>
@@ -5150,6 +5182,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖2!$C$4:$C$12</c:f>
@@ -5286,7 +5339,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5343,23 +5396,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -5424,9 +5460,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12680663580246915"/>
+          <c:x val="6.5170833333333331E-2"/>
           <c:y val="6.2330246913580259E-2"/>
-          <c:w val="0.79504567901234569"/>
+          <c:w val="0.83832145061728391"/>
           <c:h val="0.61472109501670658"/>
         </c:manualLayout>
       </c:layout>
@@ -5447,6 +5483,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖2!$C$17:$C$25</c:f>
@@ -5583,7 +5640,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5640,23 +5697,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -5724,9 +5764,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12776929012345678"/>
+          <c:x val="6.8972993827160489E-2"/>
           <c:y val="6.6250000000000003E-2"/>
-          <c:w val="0.80188657407407404"/>
+          <c:w val="0.86068287037037039"/>
           <c:h val="0.61472109501670658"/>
         </c:manualLayout>
       </c:layout>
@@ -5747,6 +5787,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖2!$C$30:$C$38</c:f>
@@ -5884,7 +5945,7 @@
           <c:orientation val="minMax"/>
           <c:max val="300"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5941,23 +6002,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -6022,9 +6066,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12282170138888888"/>
+          <c:x val="7.5784722222222212E-2"/>
           <c:y val="6.6250000000000003E-2"/>
-          <c:w val="0.82539131944444444"/>
+          <c:w val="0.87242839506172842"/>
           <c:h val="0.61472109501670658"/>
         </c:manualLayout>
       </c:layout>
@@ -6045,6 +6089,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖2!$C$44:$C$52</c:f>
@@ -6182,7 +6247,7 @@
           <c:orientation val="minMax"/>
           <c:max val="160"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6239,23 +6304,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -6321,9 +6369,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12282170138888888"/>
+          <c:x val="6.9905092592592588E-2"/>
           <c:y val="6.6250000000000003E-2"/>
-          <c:w val="0.82539131944444444"/>
+          <c:w val="0.87830802469135816"/>
           <c:h val="0.61472109501670658"/>
         </c:manualLayout>
       </c:layout>
@@ -6344,6 +6392,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖2!$C$57:$C$65</c:f>
@@ -6480,7 +6549,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6537,23 +6606,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -6619,9 +6671,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12282170138888888"/>
+          <c:x val="6.0105709876543213E-2"/>
           <c:y val="6.6250000000000003E-2"/>
-          <c:w val="0.82539131944444444"/>
+          <c:w val="0.88810740740740746"/>
           <c:h val="0.61472109501670658"/>
         </c:manualLayout>
       </c:layout>
@@ -6642,6 +6694,27 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>數量圖2!$C$70:$C$78</c:f>
@@ -6778,7 +6851,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -6835,23 +6908,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="930548928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -6903,13 +6959,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>557212</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>91110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>188081</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>197677</xdr:rowOff>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6946,8 +7002,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>135693</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>182217</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198783</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7100,14 +7156,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>595311</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8062,7 +8118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="P70" sqref="P70"/>
     </sheetView>
   </sheetViews>
@@ -8110,25 +8166,25 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1">
+      <c r="A2" s="12">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H2">
@@ -8151,25 +8207,25 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="1">
+      <c r="A3" s="12">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H3">
@@ -8192,25 +8248,25 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="1">
+      <c r="A4" s="12">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="12" t="s">
         <v>29</v>
       </c>
       <c r="H4">
@@ -8233,25 +8289,25 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="1">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="12" t="s">
         <v>29</v>
       </c>
       <c r="H5">
@@ -8274,25 +8330,25 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="1">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H6">
@@ -8315,25 +8371,25 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="1">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="12" t="s">
         <v>39</v>
       </c>
       <c r="H7">
@@ -8356,25 +8412,25 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="12" t="s">
         <v>51</v>
       </c>
       <c r="H8">
@@ -8397,25 +8453,25 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1">
+      <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>51</v>
       </c>
       <c r="H9">
@@ -8438,25 +8494,25 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="1">
+      <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H10">
@@ -8479,25 +8535,25 @@
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="1">
+      <c r="A11" s="12">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H11">
@@ -8520,25 +8576,25 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="1">
+      <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H12">
@@ -8561,25 +8617,25 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="1">
+      <c r="A13" s="12">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H13">
@@ -8602,25 +8658,25 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="1">
+      <c r="A14" s="12">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="12" t="s">
         <v>83</v>
       </c>
       <c r="H14">
@@ -8643,25 +8699,25 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="1">
+      <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="12" t="s">
         <v>83</v>
       </c>
       <c r="H15">
@@ -8684,25 +8740,25 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="1">
+      <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="12" t="s">
         <v>95</v>
       </c>
       <c r="H16">
@@ -8725,25 +8781,25 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="1">
+      <c r="A17" s="12">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="12" t="s">
         <v>95</v>
       </c>
       <c r="H17">
@@ -8766,25 +8822,25 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="1">
+      <c r="A18" s="12">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="12" t="s">
         <v>105</v>
       </c>
       <c r="H18">
@@ -8807,25 +8863,25 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="1">
+      <c r="A19" s="12">
         <v>11</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="12" t="s">
         <v>105</v>
       </c>
       <c r="H19">
@@ -8848,25 +8904,25 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <v>12</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="12" t="s">
         <v>114</v>
       </c>
       <c r="H20">
@@ -8889,25 +8945,25 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1">
+      <c r="A21" s="12">
         <v>12</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="12" t="s">
         <v>114</v>
       </c>
       <c r="H21">
@@ -8930,25 +8986,25 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1">
+      <c r="A22" s="12">
         <v>13</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="12" t="s">
         <v>125</v>
       </c>
       <c r="H22">
@@ -8971,25 +9027,25 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="1">
+      <c r="A23" s="12">
         <v>13</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="12" t="s">
         <v>125</v>
       </c>
       <c r="H23">
@@ -9012,25 +9068,25 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="1">
+      <c r="A24" s="12">
         <v>14</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="12" t="s">
         <v>136</v>
       </c>
       <c r="H24">
@@ -9053,25 +9109,25 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="1">
+      <c r="A25" s="12">
         <v>14</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="12" t="s">
         <v>136</v>
       </c>
       <c r="H25">
@@ -9094,25 +9150,25 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="1">
+      <c r="A26" s="12">
         <v>15</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="12" t="s">
         <v>148</v>
       </c>
       <c r="H26">
@@ -9135,25 +9191,25 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="1">
+      <c r="A27" s="12">
         <v>15</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="12" t="s">
         <v>148</v>
       </c>
       <c r="H27">
@@ -9176,25 +9232,25 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="1">
+      <c r="A28" s="12">
         <v>16</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="12" t="s">
         <v>158</v>
       </c>
       <c r="H28">
@@ -9217,25 +9273,25 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="1">
+      <c r="A29" s="12">
         <v>16</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="12" t="s">
         <v>158</v>
       </c>
       <c r="H29">
@@ -9258,25 +9314,25 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="1">
+      <c r="A30" s="12">
         <v>17</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="12" t="s">
         <v>166</v>
       </c>
       <c r="H30">
@@ -9299,25 +9355,25 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="1">
+      <c r="A31" s="12">
         <v>17</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="12" t="s">
         <v>166</v>
       </c>
       <c r="H31">
@@ -9340,25 +9396,25 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="1">
+      <c r="A32" s="12">
         <v>18</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="12" t="s">
         <v>176</v>
       </c>
       <c r="H32">
@@ -9381,25 +9437,25 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="1">
+      <c r="A33" s="12">
         <v>18</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="12" t="s">
         <v>176</v>
       </c>
       <c r="H33">
@@ -9422,25 +9478,25 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="1">
+      <c r="A34" s="12">
         <v>19</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="12" t="s">
         <v>185</v>
       </c>
       <c r="H34">
@@ -9463,25 +9519,25 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="1">
+      <c r="A35" s="12">
         <v>19</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="12" t="s">
         <v>185</v>
       </c>
       <c r="H35">
@@ -9504,25 +9560,25 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="1">
+      <c r="A36" s="12">
         <v>20</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="12" t="s">
         <v>193</v>
       </c>
       <c r="H36">
@@ -9545,25 +9601,25 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="1">
+      <c r="A37" s="12">
         <v>20</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="12" t="s">
         <v>193</v>
       </c>
       <c r="H37">
@@ -9586,25 +9642,25 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="1">
+      <c r="A38" s="12">
         <v>21</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="12" t="s">
         <v>204</v>
       </c>
       <c r="H38">
@@ -9627,25 +9683,25 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="1">
+      <c r="A39" s="12">
         <v>21</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="12" t="s">
         <v>204</v>
       </c>
       <c r="H39">
@@ -9668,25 +9724,25 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="1">
+      <c r="A40" s="12">
         <v>22</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="12" t="s">
         <v>213</v>
       </c>
       <c r="H40">
@@ -9709,25 +9765,25 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="1">
+      <c r="A41" s="12">
         <v>22</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="12" t="s">
         <v>213</v>
       </c>
       <c r="H41">
@@ -9750,25 +9806,25 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="1">
+      <c r="A42" s="12">
         <v>23</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="12" t="s">
         <v>222</v>
       </c>
       <c r="H42">
@@ -9791,25 +9847,25 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="1">
+      <c r="A43" s="12">
         <v>23</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="12" t="s">
         <v>222</v>
       </c>
       <c r="H43">
@@ -9832,25 +9888,25 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="1">
+      <c r="A44" s="12">
         <v>24</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="12" t="s">
         <v>229</v>
       </c>
       <c r="H44">
@@ -9873,25 +9929,25 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="1">
+      <c r="A45" s="12">
         <v>24</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="12" t="s">
         <v>229</v>
       </c>
       <c r="H45">
@@ -9914,25 +9970,25 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="1">
+      <c r="A46" s="12">
         <v>25</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="12" t="s">
         <v>237</v>
       </c>
       <c r="H46">
@@ -9955,25 +10011,25 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="1">
+      <c r="A47" s="12">
         <v>25</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="12" t="s">
         <v>237</v>
       </c>
       <c r="H47">
@@ -9996,25 +10052,25 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="1">
+      <c r="A48" s="12">
         <v>26</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="12" t="s">
         <v>247</v>
       </c>
       <c r="H48">
@@ -10037,25 +10093,25 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="1">
+      <c r="A49" s="12">
         <v>26</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="12" t="s">
         <v>247</v>
       </c>
       <c r="H49">
@@ -10078,25 +10134,25 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="1">
+      <c r="A50" s="12">
         <v>27</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="12" t="s">
         <v>256</v>
       </c>
       <c r="H50">
@@ -10119,25 +10175,25 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="1">
+      <c r="A51" s="12">
         <v>27</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="12" t="s">
         <v>256</v>
       </c>
       <c r="H51">
@@ -10160,25 +10216,25 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="1">
+      <c r="A52" s="12">
         <v>28</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="12" t="s">
         <v>263</v>
       </c>
       <c r="H52">
@@ -10201,25 +10257,25 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="1">
+      <c r="A53" s="12">
         <v>28</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="12" t="s">
         <v>263</v>
       </c>
       <c r="H53">
@@ -10242,25 +10298,25 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="1">
+      <c r="A54" s="12">
         <v>29</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="12" t="s">
         <v>274</v>
       </c>
       <c r="H54">
@@ -10283,25 +10339,25 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="1">
+      <c r="A55" s="12">
         <v>29</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F55" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="12" t="s">
         <v>274</v>
       </c>
       <c r="H55">
@@ -10324,25 +10380,25 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="1">
+      <c r="A56" s="12">
         <v>30</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="12" t="s">
         <v>282</v>
       </c>
       <c r="H56">
@@ -10365,25 +10421,25 @@
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="1">
+      <c r="A57" s="12">
         <v>30</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="12" t="s">
         <v>282</v>
       </c>
       <c r="H57">
@@ -10406,25 +10462,25 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="1">
+      <c r="A58" s="12">
         <v>31</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F58" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="12" t="s">
         <v>293</v>
       </c>
       <c r="H58">
@@ -10447,25 +10503,25 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="1">
+      <c r="A59" s="12">
         <v>31</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="12" t="s">
         <v>293</v>
       </c>
       <c r="H59">
@@ -10488,25 +10544,25 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="1">
+      <c r="A60" s="12">
         <v>32</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="12" t="s">
         <v>301</v>
       </c>
       <c r="H60">
@@ -10529,25 +10585,25 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="1">
+      <c r="A61" s="12">
         <v>32</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F61" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="12" t="s">
         <v>301</v>
       </c>
       <c r="H61">
@@ -10570,25 +10626,25 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="1">
+      <c r="A62" s="12">
         <v>32</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F62" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="12" t="s">
         <v>301</v>
       </c>
       <c r="H62">
@@ -10611,25 +10667,25 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="1">
+      <c r="A63" s="12">
         <v>33</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F63" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="12" t="s">
         <v>309</v>
       </c>
       <c r="H63">
@@ -10652,25 +10708,25 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="1">
+      <c r="A64" s="12">
         <v>33</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="12" t="s">
         <v>309</v>
       </c>
       <c r="H64">
@@ -10693,25 +10749,25 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="1">
+      <c r="A65" s="12">
         <v>34</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H65">
@@ -10734,25 +10790,25 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="1">
+      <c r="A66" s="12">
         <v>34</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="12" t="s">
         <v>317</v>
       </c>
       <c r="H66">
@@ -10775,25 +10831,25 @@
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="1">
+      <c r="A67" s="12">
         <v>35</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="12" t="s">
         <v>327</v>
       </c>
       <c r="H67">
@@ -10816,25 +10872,25 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="1">
+      <c r="A68" s="12">
         <v>35</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F68" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="12" t="s">
         <v>327</v>
       </c>
       <c r="H68">
@@ -10857,25 +10913,25 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="1">
+      <c r="A69" s="12">
         <v>36</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F69" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="12" t="s">
         <v>333</v>
       </c>
       <c r="H69">
@@ -10898,25 +10954,25 @@
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="1">
+      <c r="A70" s="12">
         <v>36</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F70" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G70" s="12" t="s">
         <v>333</v>
       </c>
       <c r="H70">
@@ -10939,25 +10995,25 @@
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="1">
+      <c r="A71" s="12">
         <v>37</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F71" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" s="12" t="s">
         <v>340</v>
       </c>
       <c r="H71">
@@ -10980,25 +11036,25 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="1">
+      <c r="A72" s="12">
         <v>37</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F72" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" s="12" t="s">
         <v>340</v>
       </c>
       <c r="H72">
@@ -11021,25 +11077,25 @@
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="1">
+      <c r="A73" s="12">
         <v>38</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="12" t="s">
         <v>348</v>
       </c>
       <c r="H73">
@@ -11062,25 +11118,25 @@
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="1">
+      <c r="A74" s="12">
         <v>38</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F74" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" s="12" t="s">
         <v>348</v>
       </c>
       <c r="H74">
@@ -11103,25 +11159,25 @@
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="1">
+      <c r="A75" s="12">
         <v>39</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="12" t="s">
         <v>357</v>
       </c>
       <c r="H75">
@@ -11144,25 +11200,25 @@
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="1">
+      <c r="A76" s="12">
         <v>39</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="12" t="s">
         <v>357</v>
       </c>
       <c r="H76">
@@ -11185,25 +11241,25 @@
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="1">
+      <c r="A77" s="12">
         <v>40</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F77" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G77" s="12" t="s">
         <v>362</v>
       </c>
       <c r="H77">
@@ -11226,25 +11282,25 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="1">
+      <c r="A78" s="12">
         <v>40</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="F78" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="G78" s="12" t="s">
         <v>362</v>
       </c>
       <c r="H78">
@@ -11267,25 +11323,25 @@
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="1">
+      <c r="A79" s="12">
         <v>41</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="F79" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G79" s="12" t="s">
         <v>368</v>
       </c>
       <c r="H79">
@@ -11308,25 +11364,25 @@
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="1">
+      <c r="A80" s="12">
         <v>41</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="F80" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G80" s="12" t="s">
         <v>368</v>
       </c>
       <c r="H80">
@@ -11349,25 +11405,25 @@
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="1">
+      <c r="A81" s="12">
         <v>1</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="F81" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="G81" s="12" t="s">
         <v>372</v>
       </c>
       <c r="H81">
@@ -11390,25 +11446,25 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="1">
+      <c r="A82" s="12">
         <v>1</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F82" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="G82" s="12" t="s">
         <v>372</v>
       </c>
       <c r="H82">
@@ -11431,25 +11487,25 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="1">
+      <c r="A83" s="12">
         <v>2</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F83" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="12" t="s">
         <v>382</v>
       </c>
       <c r="H83">
@@ -11472,25 +11528,25 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="1">
+      <c r="A84" s="12">
         <v>2</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="12" t="s">
         <v>382</v>
       </c>
       <c r="H84">
@@ -11514,23 +11570,252 @@
     </row>
   </sheetData>
   <mergeCells count="287">
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="G81:G82"/>
     <mergeCell ref="G83:G84"/>
     <mergeCell ref="G2:G3"/>
@@ -11555,252 +11840,23 @@
     <mergeCell ref="G40:G41"/>
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="G44:G45"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G63:G64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12547,14 +12603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AQ119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="3.7109375" customWidth="1"/>
     <col min="4" max="11" width="2.7109375" customWidth="1"/>
     <col min="12" max="22" width="3.7109375" customWidth="1"/>
@@ -12562,141 +12618,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="18.75">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="6">
         <v>7</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="W1" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="X1" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Y1" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AC1" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AE1" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AI1" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AK1" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AL1" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AM1" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AN1" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AO1" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AP1" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="30">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>493</v>
       </c>
       <c r="D2" t="s">
@@ -12764,10 +12820,10 @@
       </c>
     </row>
     <row r="3" spans="1:43">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>496</v>
       </c>
       <c r="V3" t="s">
@@ -12781,10 +12837,10 @@
       </c>
     </row>
     <row r="4" spans="1:43">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>498</v>
       </c>
       <c r="AA4" t="s">
@@ -12798,10 +12854,10 @@
       </c>
     </row>
     <row r="5" spans="1:43">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>500</v>
       </c>
       <c r="C5" t="s">
@@ -12854,10 +12910,10 @@
       </c>
     </row>
     <row r="6" spans="1:43">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>502</v>
       </c>
       <c r="R6" t="s">
@@ -12889,10 +12945,10 @@
       </c>
     </row>
     <row r="7" spans="1:43">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>504</v>
       </c>
       <c r="C7" t="s">
@@ -12903,10 +12959,10 @@
       </c>
     </row>
     <row r="8" spans="1:43" ht="30">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>506</v>
       </c>
       <c r="C8" t="s">
@@ -12917,10 +12973,10 @@
       </c>
     </row>
     <row r="9" spans="1:43">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>508</v>
       </c>
       <c r="C9" t="s">
@@ -12940,10 +12996,10 @@
       </c>
     </row>
     <row r="10" spans="1:43">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>510</v>
       </c>
       <c r="AA10" t="s">
@@ -12960,10 +13016,10 @@
       </c>
     </row>
     <row r="11" spans="1:43">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>512</v>
       </c>
       <c r="Z11" t="s">
@@ -12986,10 +13042,10 @@
       </c>
     </row>
     <row r="12" spans="1:43" ht="30">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>514</v>
       </c>
       <c r="E12" t="s">
@@ -13024,10 +13080,10 @@
       </c>
     </row>
     <row r="13" spans="1:43">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>516</v>
       </c>
       <c r="AF13" t="s">
@@ -13035,10 +13091,10 @@
       </c>
     </row>
     <row r="14" spans="1:43">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>518</v>
       </c>
       <c r="C14" t="s">
@@ -13070,10 +13126,10 @@
       </c>
     </row>
     <row r="15" spans="1:43" ht="30">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>520</v>
       </c>
       <c r="AO15" t="s">
@@ -13081,10 +13137,10 @@
       </c>
     </row>
     <row r="16" spans="1:43">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>522</v>
       </c>
       <c r="O16" t="s">
@@ -13113,10 +13169,10 @@
       </c>
     </row>
     <row r="17" spans="1:43" ht="30">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>524</v>
       </c>
       <c r="C17" t="s">
@@ -13124,10 +13180,10 @@
       </c>
     </row>
     <row r="18" spans="1:43">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>526</v>
       </c>
       <c r="C18" t="s">
@@ -13135,10 +13191,10 @@
       </c>
     </row>
     <row r="19" spans="1:43">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>528</v>
       </c>
       <c r="O19" t="s">
@@ -13146,10 +13202,10 @@
       </c>
     </row>
     <row r="20" spans="1:43">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>530</v>
       </c>
       <c r="G20" t="s">
@@ -13163,10 +13219,10 @@
       </c>
     </row>
     <row r="21" spans="1:43">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>532</v>
       </c>
       <c r="C21" t="s">
@@ -13177,10 +13233,10 @@
       </c>
     </row>
     <row r="22" spans="1:43">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>534</v>
       </c>
       <c r="C22" t="s">
@@ -13188,10 +13244,10 @@
       </c>
     </row>
     <row r="23" spans="1:43" ht="30">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>536</v>
       </c>
       <c r="D23" t="s">
@@ -13202,10 +13258,10 @@
       </c>
     </row>
     <row r="24" spans="1:43">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>538</v>
       </c>
       <c r="AF24" t="s">
@@ -13213,10 +13269,10 @@
       </c>
     </row>
     <row r="25" spans="1:43">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>540</v>
       </c>
       <c r="D25" t="s">
@@ -13269,10 +13325,10 @@
       </c>
     </row>
     <row r="26" spans="1:43">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>542</v>
       </c>
       <c r="AF26" t="s">
@@ -13283,10 +13339,10 @@
       </c>
     </row>
     <row r="27" spans="1:43">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>544</v>
       </c>
       <c r="O27" t="s">
@@ -13300,10 +13356,10 @@
       </c>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>546</v>
       </c>
       <c r="F28" t="s">
@@ -13323,10 +13379,10 @@
       </c>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>547</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>548</v>
       </c>
       <c r="X29" t="s">
@@ -13346,10 +13402,10 @@
       </c>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>550</v>
       </c>
       <c r="AF30" t="s">
@@ -13357,10 +13413,10 @@
       </c>
     </row>
     <row r="31" spans="1:43">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>552</v>
       </c>
       <c r="F31" t="s">
@@ -13374,10 +13430,10 @@
       </c>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>554</v>
       </c>
       <c r="AE32" t="s">
@@ -13388,10 +13444,10 @@
       </c>
     </row>
     <row r="33" spans="1:43">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>556</v>
       </c>
       <c r="E33" t="s">
@@ -13420,10 +13476,10 @@
       </c>
     </row>
     <row r="34" spans="1:43">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>558</v>
       </c>
       <c r="AD34" t="s">
@@ -13434,10 +13490,10 @@
       </c>
     </row>
     <row r="35" spans="1:43">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>560</v>
       </c>
       <c r="D35" t="s">
@@ -13454,10 +13510,10 @@
       </c>
     </row>
     <row r="36" spans="1:43">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>562</v>
       </c>
       <c r="D36" t="s">
@@ -13564,10 +13620,10 @@
       </c>
     </row>
     <row r="37" spans="1:43">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>564</v>
       </c>
       <c r="D37" t="s">
@@ -13593,10 +13649,10 @@
       </c>
     </row>
     <row r="38" spans="1:43">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>566</v>
       </c>
       <c r="E38" t="s">
@@ -13607,10 +13663,10 @@
       </c>
     </row>
     <row r="39" spans="1:43">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>568</v>
       </c>
       <c r="T39" t="s">
@@ -13627,10 +13683,10 @@
       </c>
     </row>
     <row r="40" spans="1:43">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>570</v>
       </c>
       <c r="E40" t="s">
@@ -13692,10 +13748,10 @@
       </c>
     </row>
     <row r="41" spans="1:43">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>572</v>
       </c>
       <c r="D41" t="s">
@@ -13736,10 +13792,10 @@
       </c>
     </row>
     <row r="42" spans="1:43">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>574</v>
       </c>
       <c r="AF42" t="s">
@@ -13747,10 +13803,10 @@
       </c>
     </row>
     <row r="43" spans="1:43">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>576</v>
       </c>
       <c r="F43" t="s">
@@ -13767,10 +13823,10 @@
       </c>
     </row>
     <row r="44" spans="1:43">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>578</v>
       </c>
       <c r="C44" t="s">
@@ -13787,10 +13843,10 @@
       </c>
     </row>
     <row r="45" spans="1:43">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>580</v>
       </c>
       <c r="D45" t="s">
@@ -13831,10 +13887,10 @@
       </c>
     </row>
     <row r="46" spans="1:43">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>582</v>
       </c>
       <c r="C46" t="s">
@@ -13872,10 +13928,10 @@
       </c>
     </row>
     <row r="47" spans="1:43">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>584</v>
       </c>
       <c r="AJ47" t="s">
@@ -13883,10 +13939,10 @@
       </c>
     </row>
     <row r="48" spans="1:43">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>586</v>
       </c>
       <c r="AF48" t="s">
@@ -13894,10 +13950,10 @@
       </c>
     </row>
     <row r="49" spans="1:43">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>588</v>
       </c>
       <c r="R49" t="s">
@@ -13914,10 +13970,10 @@
       </c>
     </row>
     <row r="50" spans="1:43">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>590</v>
       </c>
       <c r="D50" t="s">
@@ -13940,10 +13996,10 @@
       </c>
     </row>
     <row r="51" spans="1:43">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>592</v>
       </c>
       <c r="C51" t="s">
@@ -14002,10 +14058,10 @@
       </c>
     </row>
     <row r="52" spans="1:43">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>594</v>
       </c>
       <c r="C52" t="s">
@@ -14013,10 +14069,10 @@
       </c>
     </row>
     <row r="53" spans="1:43" ht="30">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>595</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>596</v>
       </c>
       <c r="R53" t="s">
@@ -14036,10 +14092,10 @@
       </c>
     </row>
     <row r="54" spans="1:43">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>597</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>598</v>
       </c>
       <c r="E54" t="s">
@@ -14089,10 +14145,10 @@
       </c>
     </row>
     <row r="55" spans="1:43">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>600</v>
       </c>
       <c r="R55" t="s">
@@ -14112,10 +14168,10 @@
       </c>
     </row>
     <row r="56" spans="1:43" ht="30">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>602</v>
       </c>
       <c r="Q56" t="s">
@@ -14123,10 +14179,10 @@
       </c>
     </row>
     <row r="57" spans="1:43">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>604</v>
       </c>
       <c r="E57" t="s">
@@ -14167,10 +14223,10 @@
       </c>
     </row>
     <row r="58" spans="1:43">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>605</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>606</v>
       </c>
       <c r="Q58" t="s">
@@ -14187,10 +14243,10 @@
       </c>
     </row>
     <row r="59" spans="1:43">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>608</v>
       </c>
       <c r="C59" t="s">
@@ -14198,10 +14254,10 @@
       </c>
     </row>
     <row r="60" spans="1:43">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>609</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>610</v>
       </c>
       <c r="C60" t="s">
@@ -14209,10 +14265,10 @@
       </c>
     </row>
     <row r="61" spans="1:43">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>612</v>
       </c>
       <c r="C61" t="s">
@@ -14226,10 +14282,10 @@
       </c>
     </row>
     <row r="62" spans="1:43">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>614</v>
       </c>
       <c r="C62" t="s">
@@ -14237,10 +14293,10 @@
       </c>
     </row>
     <row r="63" spans="1:43">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>616</v>
       </c>
       <c r="R63" t="s">
@@ -14257,10 +14313,10 @@
       </c>
     </row>
     <row r="64" spans="1:43">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>618</v>
       </c>
       <c r="R64" t="s">
@@ -14286,10 +14342,10 @@
       </c>
     </row>
     <row r="65" spans="1:43">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="8" t="s">
         <v>620</v>
       </c>
       <c r="C65" t="s">
@@ -14309,10 +14365,10 @@
       </c>
     </row>
     <row r="66" spans="1:43">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>622</v>
       </c>
       <c r="C66" t="s">
@@ -14335,10 +14391,10 @@
       </c>
     </row>
     <row r="67" spans="1:43">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>624</v>
       </c>
       <c r="C67" t="s">
@@ -14349,10 +14405,10 @@
       </c>
     </row>
     <row r="68" spans="1:43">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>626</v>
       </c>
       <c r="C68" t="s">
@@ -14372,10 +14428,10 @@
       </c>
     </row>
     <row r="69" spans="1:43">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>628</v>
       </c>
       <c r="D69" t="s">
@@ -14392,10 +14448,10 @@
       </c>
     </row>
     <row r="70" spans="1:43">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>630</v>
       </c>
       <c r="AJ70" t="s">
@@ -14415,10 +14471,10 @@
       </c>
     </row>
     <row r="71" spans="1:43">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>632</v>
       </c>
       <c r="C71" t="s">
@@ -14450,10 +14506,10 @@
       </c>
     </row>
     <row r="72" spans="1:43" ht="30">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>634</v>
       </c>
       <c r="C72" t="s">
@@ -14536,10 +14592,10 @@
       </c>
     </row>
     <row r="73" spans="1:43">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>636</v>
       </c>
       <c r="E73" t="s">
@@ -14601,10 +14657,10 @@
       </c>
     </row>
     <row r="74" spans="1:43">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>638</v>
       </c>
       <c r="Q74" t="s">
@@ -14618,10 +14674,10 @@
       </c>
     </row>
     <row r="75" spans="1:43">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>640</v>
       </c>
       <c r="R75" t="s">
@@ -14644,10 +14700,10 @@
       </c>
     </row>
     <row r="76" spans="1:43">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>642</v>
       </c>
       <c r="L76" t="s">
@@ -14685,10 +14741,10 @@
       </c>
     </row>
     <row r="77" spans="1:43">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>644</v>
       </c>
       <c r="R77" t="s">
@@ -14702,10 +14758,10 @@
       </c>
     </row>
     <row r="78" spans="1:43">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>646</v>
       </c>
       <c r="E78" t="s">
@@ -14773,10 +14829,10 @@
       </c>
     </row>
     <row r="79" spans="1:43">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>648</v>
       </c>
       <c r="C79" t="s">
@@ -14832,10 +14888,10 @@
       </c>
     </row>
     <row r="80" spans="1:43">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>650</v>
       </c>
       <c r="C80" t="s">
@@ -14921,10 +14977,10 @@
       </c>
     </row>
     <row r="81" spans="1:42">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>651</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>652</v>
       </c>
       <c r="C81" t="s">
@@ -14992,10 +15048,10 @@
       </c>
     </row>
     <row r="82" spans="1:42" ht="30">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>654</v>
       </c>
       <c r="E82" t="s">
@@ -15048,10 +15104,10 @@
       </c>
     </row>
     <row r="83" spans="1:42">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>656</v>
       </c>
       <c r="D83" t="s">
@@ -15107,10 +15163,10 @@
       </c>
     </row>
     <row r="84" spans="1:42">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>658</v>
       </c>
       <c r="D84" t="s">
@@ -15190,10 +15246,10 @@
       </c>
     </row>
     <row r="85" spans="1:42" ht="30">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>660</v>
       </c>
       <c r="R85" t="s">
@@ -15216,10 +15272,10 @@
       </c>
     </row>
     <row r="86" spans="1:42" ht="30">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>662</v>
       </c>
       <c r="E86" t="s">
@@ -15287,10 +15343,10 @@
       </c>
     </row>
     <row r="87" spans="1:42" ht="30">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>664</v>
       </c>
       <c r="U87" t="s">
@@ -15307,10 +15363,10 @@
       </c>
     </row>
     <row r="88" spans="1:42">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>666</v>
       </c>
       <c r="E88" t="s">
@@ -15381,10 +15437,10 @@
       </c>
     </row>
     <row r="89" spans="1:42">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>668</v>
       </c>
       <c r="C89" t="s">
@@ -15401,10 +15457,10 @@
       </c>
     </row>
     <row r="90" spans="1:42">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>670</v>
       </c>
       <c r="AF90" t="s">
@@ -15412,10 +15468,10 @@
       </c>
     </row>
     <row r="91" spans="1:42">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>672</v>
       </c>
       <c r="T91" t="s">
@@ -15432,10 +15488,10 @@
       </c>
     </row>
     <row r="92" spans="1:42" ht="30">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>674</v>
       </c>
       <c r="K92" t="s">
@@ -15455,10 +15511,10 @@
       </c>
     </row>
     <row r="93" spans="1:42">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>676</v>
       </c>
       <c r="R93" t="s">
@@ -15472,10 +15528,10 @@
       </c>
     </row>
     <row r="94" spans="1:42">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>678</v>
       </c>
       <c r="R94" t="s">
@@ -15501,10 +15557,10 @@
       </c>
     </row>
     <row r="95" spans="1:42" ht="30">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>680</v>
       </c>
       <c r="U95" t="s">
@@ -15512,10 +15568,10 @@
       </c>
     </row>
     <row r="96" spans="1:42">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>682</v>
       </c>
       <c r="C96" t="s">
@@ -15523,10 +15579,10 @@
       </c>
     </row>
     <row r="97" spans="1:42">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>684</v>
       </c>
       <c r="C97" t="s">
@@ -15534,10 +15590,10 @@
       </c>
     </row>
     <row r="98" spans="1:42">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>686</v>
       </c>
       <c r="C98" t="s">
@@ -15545,10 +15601,10 @@
       </c>
     </row>
     <row r="99" spans="1:42">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>688</v>
       </c>
       <c r="AB99" t="s">
@@ -15559,10 +15615,10 @@
       </c>
     </row>
     <row r="100" spans="1:42">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>690</v>
       </c>
       <c r="Z100" t="s">
@@ -15573,10 +15629,10 @@
       </c>
     </row>
     <row r="101" spans="1:42">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>692</v>
       </c>
       <c r="C101" t="s">
@@ -15584,10 +15640,10 @@
       </c>
     </row>
     <row r="102" spans="1:42">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>694</v>
       </c>
       <c r="AC102" t="s">
@@ -15598,10 +15654,10 @@
       </c>
     </row>
     <row r="103" spans="1:42">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>696</v>
       </c>
       <c r="J103" t="s">
@@ -15654,10 +15710,10 @@
       </c>
     </row>
     <row r="104" spans="1:42" ht="30">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>698</v>
       </c>
       <c r="R104" t="s">
@@ -15683,10 +15739,10 @@
       </c>
     </row>
     <row r="105" spans="1:42">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>700</v>
       </c>
       <c r="D105" t="s">
@@ -15739,10 +15795,10 @@
       </c>
     </row>
     <row r="106" spans="1:42">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>702</v>
       </c>
       <c r="D106" t="s">
@@ -15810,10 +15866,10 @@
       </c>
     </row>
     <row r="107" spans="1:42">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>704</v>
       </c>
       <c r="Q107" t="s">
@@ -15836,10 +15892,10 @@
       </c>
     </row>
     <row r="108" spans="1:42">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>705</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>706</v>
       </c>
       <c r="R108" t="s">
@@ -15859,10 +15915,10 @@
       </c>
     </row>
     <row r="109" spans="1:42">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>708</v>
       </c>
       <c r="E109" t="s">
@@ -15879,10 +15935,10 @@
       </c>
     </row>
     <row r="110" spans="1:42">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>710</v>
       </c>
       <c r="Q110" t="s">
@@ -15911,10 +15967,10 @@
       </c>
     </row>
     <row r="111" spans="1:42">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>712</v>
       </c>
       <c r="C111" t="s">
@@ -15922,10 +15978,10 @@
       </c>
     </row>
     <row r="112" spans="1:42" ht="45">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>714</v>
       </c>
       <c r="C112" t="s">
@@ -15936,10 +15992,10 @@
       </c>
     </row>
     <row r="113" spans="1:43">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>716</v>
       </c>
       <c r="AO113" t="s">
@@ -15947,10 +16003,10 @@
       </c>
     </row>
     <row r="114" spans="1:43">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>718</v>
       </c>
       <c r="C114" t="s">
@@ -15964,10 +16020,10 @@
       </c>
     </row>
     <row r="115" spans="1:43">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>720</v>
       </c>
       <c r="J115" t="s">
@@ -15978,10 +16034,10 @@
       </c>
     </row>
     <row r="116" spans="1:43">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>722</v>
       </c>
       <c r="E116" t="s">
@@ -15992,10 +16048,10 @@
       </c>
     </row>
     <row r="117" spans="1:43">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="8" t="s">
         <v>724</v>
       </c>
       <c r="U117" t="s">
@@ -16006,10 +16062,10 @@
       </c>
     </row>
     <row r="118" spans="1:43">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>726</v>
       </c>
       <c r="AE118" t="s">
@@ -16017,10 +16073,10 @@
       </c>
     </row>
     <row r="119" spans="1:43">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="9" t="s">
         <v>785</v>
       </c>
-      <c r="B119" s="11">
+      <c r="B119" s="10">
         <f>COUNTA(B2:B118)</f>
         <v>117</v>
       </c>
@@ -16201,310 +16257,310 @@
   <dimension ref="B2:D42"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="12.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>7219</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="28.5">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:4">
+      <c r="B4" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>942</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="28.5">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="2:4">
+      <c r="B5" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>781</v>
       </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="28.5">
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="2:4">
+      <c r="B7" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28.5">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="2:4">
+      <c r="B8" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>393</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="28.5">
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>372</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>261</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>248</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>1865</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="28.5">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>289</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="28.5">
-      <c r="B21" s="4" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="28.5">
-      <c r="B23" s="4" t="s">
+    <row r="23" spans="2:4">
+      <c r="B23" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>113</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="30">
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="2:4">
+      <c r="B28" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>5354</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>938</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>776</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>366</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>334</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>259</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>244</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>228</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>226</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <v>130</v>
       </c>
     </row>
@@ -16519,1098 +16575,1098 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA94A908-6197-46D5-9FA8-B8A217C9EF81}">
   <dimension ref="B2:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>634</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="2" t="str">
         <f>_xlfn.CONCAT("總隻次 "," = ",D3)</f>
         <v>總隻次  = 634</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>53</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>764</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>52</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>51</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>43</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>41</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>39</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>37</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>36</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>31</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>313</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" s="2" t="str">
         <f>_xlfn.CONCAT("總隻次 "," = ",D16)</f>
         <v>總隻次  = 313</v>
       </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>57</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>39</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>39</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>17</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>16</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>13</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>13</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>13</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="2:5">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>1095</v>
       </c>
-      <c r="E29" s="5" t="str">
+      <c r="E29" s="4" t="str">
         <f>_xlfn.CONCAT("總隻次 "," = ",D29)</f>
         <v>總隻次  = 1095</v>
       </c>
     </row>
     <row r="30" spans="2:5">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>287</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="2:5">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>180</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>76</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>61</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>57</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>56</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>55</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>50</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>756</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>24</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="2"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="2"/>
     </row>
     <row r="43" spans="2:5">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>937</v>
       </c>
-      <c r="E43" s="3" t="str">
+      <c r="E43" s="2" t="str">
         <f>_xlfn.CONCAT("總隻次 "," = ",D43)</f>
         <v>總隻次  = 937</v>
       </c>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <v>158</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="2"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <v>84</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="2"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <v>78</v>
       </c>
-      <c r="E46" s="3"/>
+      <c r="E46" s="2"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <v>67</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="2"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <v>60</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="2"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <v>53</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="2"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <v>48</v>
       </c>
-      <c r="E50" s="3"/>
+      <c r="E50" s="2"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <v>41</v>
       </c>
-      <c r="E51" s="3"/>
+      <c r="E51" s="2"/>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <v>37</v>
       </c>
-      <c r="E52" s="3"/>
+      <c r="E52" s="2"/>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="E55" s="2"/>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>1348</v>
       </c>
-      <c r="E56" s="5" t="str">
+      <c r="E56" s="4" t="str">
         <f>_xlfn.CONCAT("總隻次 "," = ",D56)</f>
         <v>總隻次  = 1348</v>
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <v>148</v>
       </c>
-      <c r="E57" s="3"/>
+      <c r="E57" s="2"/>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <v>131</v>
       </c>
-      <c r="E58" s="3"/>
+      <c r="E58" s="2"/>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <v>96</v>
       </c>
-      <c r="E59" s="3"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <v>85</v>
       </c>
-      <c r="E60" s="3"/>
+      <c r="E60" s="2"/>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <v>81</v>
       </c>
-      <c r="E61" s="3"/>
+      <c r="E61" s="2"/>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <v>59</v>
       </c>
-      <c r="E62" s="3"/>
+      <c r="E62" s="2"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <v>51</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="2"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <v>49</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="2">
         <v>43</v>
       </c>
-      <c r="E65" s="3"/>
+      <c r="E65" s="2"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="E68" s="3"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69" s="2">
         <v>225</v>
       </c>
-      <c r="E69" s="3" t="str">
+      <c r="E69" s="2" t="str">
         <f>_xlfn.CONCAT("總隻次 "," = ",D69)</f>
         <v>總隻次  = 225</v>
       </c>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70" s="2">
         <v>68</v>
       </c>
-      <c r="E70" s="3"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71" s="2">
         <v>36</v>
       </c>
-      <c r="E71" s="3"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="2">
         <v>21</v>
       </c>
-      <c r="E72" s="3"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73" s="2">
         <v>21</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="2"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74" s="2">
         <v>16</v>
       </c>
-      <c r="E74" s="3"/>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75" s="2">
         <v>10</v>
       </c>
-      <c r="E75" s="3"/>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="2">
         <v>8</v>
       </c>
-      <c r="E76" s="3"/>
+      <c r="E76" s="2"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77" s="2">
         <v>7</v>
       </c>
-      <c r="E77" s="3"/>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78" s="2">
         <v>7</v>
       </c>
-      <c r="E78" s="3"/>
+      <c r="E78" s="2"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="E81" s="3"/>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="4">
         <v>2115</v>
       </c>
-      <c r="E82" s="5" t="str">
+      <c r="E82" s="4" t="str">
         <f>_xlfn.CONCAT("總隻次 "," = ",D82)</f>
         <v>總隻次  = 2115</v>
       </c>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>735</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="2">
         <v>462</v>
       </c>
-      <c r="E83" s="3"/>
+      <c r="E83" s="2"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84" s="2">
         <v>330</v>
       </c>
-      <c r="E84" s="3"/>
+      <c r="E84" s="2"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85" s="2">
         <v>148</v>
       </c>
-      <c r="E85" s="3"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86" s="2">
         <v>121</v>
       </c>
-      <c r="E86" s="3"/>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87" s="2">
         <v>83</v>
       </c>
-      <c r="E87" s="3"/>
+      <c r="E87" s="2"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88" s="2">
         <v>79</v>
       </c>
-      <c r="E88" s="3"/>
+      <c r="E88" s="2"/>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="3" t="s">
         <v>730</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="2">
         <v>78</v>
       </c>
-      <c r="E89" s="3"/>
+      <c r="E89" s="2"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90" s="2">
         <v>70</v>
       </c>
-      <c r="E90" s="3"/>
+      <c r="E90" s="2"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="2">
         <v>66</v>
       </c>
-      <c r="E91" s="3"/>
+      <c r="E91" s="2"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="3" t="s">
         <v>740</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="E94" s="3"/>
+      <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95" s="2">
         <v>552</v>
       </c>
-      <c r="E95" s="3" t="str">
+      <c r="E95" s="2" t="str">
         <f>_xlfn.CONCAT("總隻次 "," = ",D95)</f>
         <v>總隻次  = 552</v>
       </c>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96" s="2">
         <v>98</v>
       </c>
-      <c r="E96" s="3"/>
+      <c r="E96" s="2"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97" s="2">
         <v>90</v>
       </c>
-      <c r="E97" s="3"/>
+      <c r="E97" s="2"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98" s="2">
         <v>54</v>
       </c>
-      <c r="E98" s="3"/>
+      <c r="E98" s="2"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99" s="2">
         <v>39</v>
       </c>
-      <c r="E99" s="3"/>
+      <c r="E99" s="2"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="2">
         <v>38</v>
       </c>
-      <c r="E100" s="3"/>
+      <c r="E100" s="2"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101" s="2">
         <v>27</v>
       </c>
-      <c r="E101" s="3"/>
+      <c r="E101" s="2"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="3" t="s">
         <v>744</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="2">
         <v>25</v>
       </c>
-      <c r="E102" s="3"/>
+      <c r="E102" s="2"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103" s="2">
         <v>19</v>
       </c>
-      <c r="E103" s="3"/>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104" s="2">
         <v>18</v>
       </c>
-      <c r="E104" s="3"/>
+      <c r="E104" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -17623,8 +17679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4560DECB-4C50-4D7F-BE4B-9C133C1A67B9}">
   <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="U51" sqref="U51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18412,8 +18468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D665E0-8D4E-42C6-8541-04F0431EBBBA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Report of Foresty_20241017/2024鳥類調查資料概況-1.xlsx
+++ b/Report of Foresty_20241017/2024鳥類調查資料概況-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20241017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F82264-CEA7-45A9-B3A9-20938526A087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A027086-F02B-4956-ACBB-6F8FD253E201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12840" windowWidth="16440" windowHeight="28320" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3805,7 +3805,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>占比 </a:t>
+                  <a:t>出現樣區占比 </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-TW"/>
@@ -4149,18 +4149,42 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>占比 </a:t>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
                   <a:t>(%)</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4451,18 +4475,42 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
-                  <a:t>占比 </a:t>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
+                  <a:t>出現樣區占比 </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:rPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
                   <a:t>(%)</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-TW" altLang="en-US"/>
+                  <a:rPr lang="zh-TW" altLang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                    <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                  <a:ea typeface="微軟正黑體" panose="020B0604030504040204" pitchFamily="34" charset="-120"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -11570,6 +11618,269 @@
     </row>
   </sheetData>
   <mergeCells count="287">
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F62"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E60:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="A83:A84"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
@@ -11594,269 +11905,6 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A45"/>
     <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E60:E62"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F62"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="G63:G64"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17679,8 +17727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4560DECB-4C50-4D7F-BE4B-9C133C1A67B9}">
   <dimension ref="B2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
